--- a/definitions/equipment.xlsx
+++ b/definitions/equipment.xlsx
@@ -792,7 +792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>

--- a/definitions/equipment.xlsx
+++ b/definitions/equipment.xlsx
@@ -202,7 +202,7 @@
     <t>S_IHPA</t>
   </si>
   <si>
-    <t>foreign_key(S_EQUI.EQUNR)</t>
+    <t>foreign_key(S_EQUI.EQUNR,"1:N")</t>
   </si>
   <si>
     <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_EQUI table.</t>

--- a/definitions/equipment.xlsx
+++ b/definitions/equipment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">1     </t>
+  </si>
+  <si>
+    <t>default("X")</t>
   </si>
   <si>
     <t>The source field for "Indicator: Use Internal Number Range" contains blank values in the sample data. Should I replicate the same behavior?</t>
@@ -133,34 +136,10 @@
     <t xml:space="preserve">13    </t>
   </si>
   <si>
-    <t>get_equipment_weight(MATNR)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Retrieves the weight associated with the selected </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>MATNR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from the JSON file, maintaining consistency with the material's description and ID.</t>
-    </r>
-  </si>
-  <si>
     <t>GEWEI</t>
+  </si>
+  <si>
+    <t>default("0")</t>
   </si>
   <si>
     <r>
@@ -202,7 +181,7 @@
     <t>S_IHPA</t>
   </si>
   <si>
-    <t>foreign_key(S_EQUI.EQUNR)</t>
+    <t>foreign_key('S_EQUI', 'EQUNR')</t>
   </si>
   <si>
     <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_EQUI table.</t>
@@ -215,6 +194,9 @@
   </si>
   <si>
     <t>S_TEXTS_EQUI</t>
+  </si>
+  <si>
+    <t>fk_copy()</t>
   </si>
   <si>
     <t>SPRAS</t>
@@ -691,9 +673,11 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -701,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -710,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -721,17 +705,17 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -739,47 +723,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -787,12 +767,14 @@
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>42</v>
@@ -875,7 +857,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -884,10 +866,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -895,17 +877,17 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
